--- a/doc/excel/统战/[sample_dpMember]党派成员导入表.xlsx
+++ b/doc/excel/统战/[sample_dpMember]党派成员导入表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目相关\功能\民主党派需求与功能\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\统战\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BCCCEA-3AD4-4CDF-BC10-F281D91F79B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209D1590-573B-41FE-8968-EEAA49A50DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="3510" windowWidth="26685" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>民主党派编码</t>
   </si>
@@ -52,31 +52,10 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>部门</t>
-  </si>
-  <si>
     <t>党派内职务</t>
   </si>
   <si>
     <t>加入党派时间</t>
-  </si>
-  <si>
-    <t>学历</t>
-  </si>
-  <si>
-    <t>学位</t>
-  </si>
-  <si>
-    <t>兼职</t>
-  </si>
-  <si>
-    <t>培训情况</t>
-  </si>
-  <si>
-    <t>党内奖励</t>
-  </si>
-  <si>
-    <t>其他奖励</t>
   </si>
   <si>
     <t>通讯地址</t>
@@ -118,10 +97,6 @@
 3、标红字段必须填写完整，其中工号必须与人事系统保持一致。
 4、样表信息仅供参考，具体信息根据学校具体情况填写。
 5、导入数据前，请先删除注意事项。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治表现</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,9 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S130"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O15" sqref="O15"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,33 +549,27 @@
     <col min="2" max="2" width="19.25" style="9" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="4"/>
     <col min="4" max="5" width="17.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="9" customWidth="1"/>
-    <col min="8" max="10" width="13.625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="9" customWidth="1"/>
-    <col min="12" max="13" width="19.25" style="9" customWidth="1"/>
-    <col min="14" max="14" width="18.25" style="9" customWidth="1"/>
-    <col min="15" max="15" width="23.125" style="9" customWidth="1"/>
-    <col min="16" max="18" width="13.625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="24.5" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="9"/>
+    <col min="6" max="6" width="19.25" style="9" customWidth="1"/>
+    <col min="7" max="10" width="13.625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -623,219 +589,181 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>123456</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6">
         <v>1365464</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6"/>
       <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="6"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="6"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="6"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="6"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="6"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="6"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="6"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="6"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="6"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="6"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="6"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="6"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C32" s="6"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
@@ -1134,7 +1062,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F4:K17"/>
+    <mergeCell ref="F4:J17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
